--- a/reports/202107_EBS_CUSBD_capacity.xlsx
+++ b/reports/202107_EBS_CUSBD_capacity.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,16 +432,131 @@
         <v>800</v>
       </c>
       <c r="D2">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="E2">
-        <v>0.99</v>
+        <v>0.3633333333333333</v>
       </c>
       <c r="F2">
-        <v>1.006666666666667</v>
+        <v>19.9</v>
       </c>
       <c r="H2">
-        <v>115.4042233303</v>
+        <v>108.87016732005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>1900</v>
+      </c>
+      <c r="D3">
+        <v>355.6</v>
+      </c>
+      <c r="E3">
+        <v>0.7288888888888888</v>
+      </c>
+      <c r="F3">
+        <v>13.68500000000001</v>
+      </c>
+      <c r="H3">
+        <v>13.88441473188333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>800</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="E4">
+        <v>0.3633333333333333</v>
+      </c>
+      <c r="F4">
+        <v>19.9</v>
+      </c>
+      <c r="H4">
+        <v>108.8784078355167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>1900</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+      <c r="E5">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="F5">
+        <v>5.951666666666673</v>
+      </c>
+      <c r="H5">
+        <v>114.79515483505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>800</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
+      <c r="E6">
+        <v>0.3633333333333333</v>
+      </c>
+      <c r="F6">
+        <v>19.9</v>
+      </c>
+      <c r="H6">
+        <v>108.8784078355167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>1900</v>
+      </c>
+      <c r="D7">
+        <v>272</v>
+      </c>
+      <c r="E7">
+        <v>0.7811111111111111</v>
+      </c>
+      <c r="F7">
+        <v>9.616666666666667</v>
+      </c>
+      <c r="H7">
+        <v>114.3560327405</v>
       </c>
     </row>
   </sheetData>
